--- a/設計.xlsx
+++ b/設計.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -100,10 +100,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>PL</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Rev 1.00</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>初版作成</t>
     <rPh sb="0" eb="2">
       <t>ショハン</t>
@@ -156,16 +148,6 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>取引先マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>内容説明</t>
     <phoneticPr fontId="16"/>
   </si>
@@ -191,16 +173,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>列タイプ</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>桁数(小数)</t>
-  </si>
-  <si>
     <t>NOT
 NULL</t>
     <phoneticPr fontId="14"/>
@@ -229,15 +201,8 @@
     <t>ＤＢ制約</t>
   </si>
   <si>
-    <t>特記事項</t>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>D.Iブログ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザー管理</t>
@@ -438,10 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>DB作成日</t>
     <rPh sb="2" eb="5">
       <t>サクセイビ</t>
@@ -467,10 +428,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,8 +436,289 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>auto_increment</t>
-    <phoneticPr fontId="1"/>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">current_timestamp() </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> current_timestamp() </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された順番で自動採番</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジドウサイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの姓</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントのカナ（姓）</t>
+  </si>
+  <si>
+    <t>該当アカウントのカナ（名）</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントのメールアドレス</t>
+  </si>
+  <si>
+    <t>該当アカウントのパスワード</t>
+  </si>
+  <si>
+    <t>該当アカウントの性別</t>
+    <rPh sb="8" eb="10">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの住所（都道府県）</t>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの住所（市区町村）</t>
+    <rPh sb="11" eb="15">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの住所（番地）</t>
+    <rPh sb="11" eb="13">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントのアカウント権限</t>
+    <rPh sb="13" eb="15">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの郵便番号
+（備考）UNSIGNED ZEROFILL属性</t>
+    <rPh sb="8" eb="12">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの削除有無を区別するフラグ</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0は男、1は女を表す</t>
+    <rPh sb="2" eb="3">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0は削除有効、1は削除無効を表す</t>
+    <rPh sb="14" eb="15">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0は一般権限、1は管理者権限を表す</t>
+    <rPh sb="2" eb="6">
+      <t>イッパ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数1の値から採番</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型（桁/バイト）</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの登録（更新）日時
+(備考) ON UPDATE CURRENT_TIMESTAMP()</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式'YYYY-MM-DD hh:mm:ss'</t>
+    <rPh sb="0" eb="1">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rev 1.00</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よしかわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.I.ブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
@@ -491,7 +729,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +869,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -652,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -865,21 +1110,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -947,21 +1177,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="hair">
@@ -1019,6 +1234,78 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1034,7 +1321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,7 +1358,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1122,12 +1408,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,48 +1420,35 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,17 +1481,53 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="17" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1262,53 +1565,64 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="17" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1345,7 +1659,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>135620</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -1354,7 +1668,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,9 +1679,9 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="7407965" y="159026"/>
-          <a:ext cx="1551609" cy="171726"/>
+          <a:ext cx="1560229" cy="171726"/>
           <a:chOff x="733" y="95"/>
-          <a:chExt cx="180" cy="17"/>
+          <a:chExt cx="181" cy="17"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1375,7 +1689,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1742,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1438,7 +1752,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="813" y="95"/>
+            <a:off x="814" y="95"/>
             <a:ext cx="100" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1521,8 +1835,13 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>23</a:t>
+              <a:t>26</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -1805,13 +2124,13 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="27" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="26" customWidth="1"/>
     <col min="7" max="32" width="4.109375" style="12" customWidth="1"/>
     <col min="33" max="36" width="4" style="12" customWidth="1"/>
     <col min="37" max="256" width="9" style="12"/>
@@ -2390,20 +2709,20 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="68"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -2422,26 +2741,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -2460,22 +2779,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="80"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="72"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -2686,26 +3005,26 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -2721,24 +3040,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -2754,24 +3073,24 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -2982,33 +3301,33 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="62" t="s">
+      <c r="AA25" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="AD25" s="125"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="13"/>
     </row>
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="18" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="82">
-        <v>45711</v>
-      </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
+      <c r="F26" s="74">
+        <v>45714</v>
+      </c>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -3026,10 +3345,12 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="20"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD26" s="125"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="13"/>
     </row>
@@ -3060,10 +3381,10 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="20"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="123"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="123"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="13"/>
     </row>
@@ -3094,10 +3415,10 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="20"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="123"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="13"/>
     </row>
@@ -3128,10 +3449,10 @@
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="20"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="123"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="123"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="13"/>
     </row>
@@ -3162,10 +3483,10 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="20"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="123"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="13"/>
     </row>
@@ -3196,10 +3517,10 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="20"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="123"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="13"/>
     </row>
@@ -3230,10 +3551,10 @@
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="20"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="123"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="13"/>
     </row>
@@ -3264,10 +3585,10 @@
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="20"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="122"/>
+      <c r="AD33" s="123"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="13"/>
     </row>
@@ -3298,10 +3619,10 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="20"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="123"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="123"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="13"/>
     </row>
@@ -3332,10 +3653,10 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="20"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="122"/>
+      <c r="AD35" s="123"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="13"/>
     </row>
@@ -3366,10 +3687,10 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="20"/>
+      <c r="AA36" s="122"/>
+      <c r="AB36" s="123"/>
+      <c r="AC36" s="122"/>
+      <c r="AD36" s="123"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="13"/>
     </row>
@@ -3400,10 +3721,10 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="20"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="123"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="123"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="13"/>
     </row>
@@ -3434,10 +3755,10 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="20"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="123"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="123"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="13"/>
     </row>
@@ -3468,10 +3789,10 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="20"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="123"/>
+      <c r="AC39" s="122"/>
+      <c r="AD39" s="123"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="13"/>
     </row>
@@ -3502,10 +3823,10 @@
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="20"/>
+      <c r="AA40" s="122"/>
+      <c r="AB40" s="123"/>
+      <c r="AC40" s="122"/>
+      <c r="AD40" s="123"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="13"/>
     </row>
@@ -3536,10 +3857,10 @@
       <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="20"/>
+      <c r="AA41" s="122"/>
+      <c r="AB41" s="123"/>
+      <c r="AC41" s="122"/>
+      <c r="AD41" s="123"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="13"/>
     </row>
@@ -3570,49 +3891,53 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="20"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="123"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="123"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" ht="13.05" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-      <c r="AF43" s="26"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F9:Q10"/>
@@ -3634,670 +3959,882 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="39" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="39" customWidth="1"/>
-    <col min="7" max="8" width="4" style="39" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="4" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9" style="39" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="39" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="35" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="4.109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="38" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="38" customWidth="1"/>
+    <col min="7" max="8" width="4" style="38" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="4" style="38" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="38" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" style="34" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="32" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:16" s="31" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108" t="s">
+      <c r="M1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="77">
+        <v>45714</v>
+      </c>
+      <c r="P1" s="78"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="57">
+        <v>45597</v>
+      </c>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="29" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="102"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="B6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="104"/>
+      <c r="N6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="116"/>
+    </row>
+    <row r="7" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="55">
+        <v>1</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="106"/>
+      <c r="N7" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="118"/>
+    </row>
+    <row r="8" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="56">
+        <v>2</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="88"/>
+      <c r="N8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="121"/>
+    </row>
+    <row r="9" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="56">
+        <v>3</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="88"/>
+      <c r="N9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="121"/>
+    </row>
+    <row r="10" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="51">
+        <v>4</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="86"/>
+      <c r="N10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="121"/>
+    </row>
+    <row r="11" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="51">
+        <v>5</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="86"/>
+      <c r="N11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="121"/>
+    </row>
+    <row r="12" spans="1:16" s="50" customFormat="1" ht="63" customHeight="1">
+      <c r="A12" s="51">
+        <v>6</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="86"/>
+      <c r="N12" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="121"/>
+    </row>
+    <row r="13" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="51">
+        <v>7</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="C13" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="86"/>
+      <c r="N13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="121"/>
+    </row>
+    <row r="14" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="51">
+        <v>8</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="86"/>
+      <c r="N14" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="121"/>
+    </row>
+    <row r="15" spans="1:16" s="50" customFormat="1" ht="63" customHeight="1">
+      <c r="A15" s="51">
+        <v>9</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="108"/>
+      <c r="N15" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="121"/>
+    </row>
+    <row r="16" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="51">
+        <v>10</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="109">
-        <v>45711</v>
-      </c>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="65">
-        <v>45597</v>
-      </c>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="95"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="98"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="46" t="s">
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A7" s="63">
-        <v>1</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="H16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="108"/>
+      <c r="N16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="121"/>
+    </row>
+    <row r="17" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="51">
+        <v>11</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="108"/>
+      <c r="N17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="121"/>
+    </row>
+    <row r="18" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="51">
+        <v>12</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="108"/>
+      <c r="N18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="121"/>
+    </row>
+    <row r="19" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="51">
+        <v>13</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="108"/>
+      <c r="N19" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="121"/>
+    </row>
+    <row r="20" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="51">
+        <v>14</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="53">
-        <v>10</v>
-      </c>
-      <c r="F7" s="54">
-        <v>0</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="51" t="s">
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="108"/>
+      <c r="N20" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="121"/>
+    </row>
+    <row r="21" spans="1:16" s="50" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A21" s="51">
+        <v>15</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="56"/>
-    </row>
-    <row r="8" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="64">
-        <v>2</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="53">
-        <v>3</v>
-      </c>
-      <c r="F8" s="54">
-        <v>0</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="56"/>
-    </row>
-    <row r="9" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="64">
-        <v>3</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="53">
-        <v>3</v>
-      </c>
-      <c r="F9" s="54">
-        <v>0</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="56"/>
-    </row>
-    <row r="10" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="58">
-        <v>4</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="53">
-        <v>3</v>
-      </c>
-      <c r="F10" s="54">
-        <v>0</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="56"/>
-    </row>
-    <row r="11" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="58">
-        <v>5</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="53">
-        <v>3</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="56"/>
-    </row>
-    <row r="12" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="58">
-        <v>6</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54">
-        <v>0</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="56"/>
-    </row>
-    <row r="13" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="58">
-        <v>7</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54">
-        <v>0</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="56"/>
-    </row>
-    <row r="14" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="58">
-        <v>8</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54">
-        <v>0</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="56"/>
-    </row>
-    <row r="15" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="58">
-        <v>9</v>
-      </c>
-      <c r="B15" s="59" t="s">
+      <c r="L21" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="108"/>
+      <c r="N21" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="121"/>
+    </row>
+    <row r="22" spans="1:16" ht="63" customHeight="1">
+      <c r="A22" s="51">
+        <v>16</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="53">
-        <v>7</v>
-      </c>
-      <c r="F15" s="54">
-        <v>0</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="56"/>
-    </row>
-    <row r="16" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A16" s="58">
-        <v>10</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="53">
-        <v>3</v>
-      </c>
-      <c r="F16" s="54">
-        <v>0</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="56"/>
-    </row>
-    <row r="17" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="58">
-        <v>11</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="53">
-        <v>3</v>
-      </c>
-      <c r="F17" s="54">
-        <v>0</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="56"/>
-    </row>
-    <row r="18" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="58">
-        <v>12</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54">
-        <v>0</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="56"/>
-    </row>
-    <row r="19" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="58">
-        <v>13</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="56"/>
-    </row>
-    <row r="20" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="58">
-        <v>14</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="51" t="s">
+      <c r="D22" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="53">
-        <v>1</v>
-      </c>
-      <c r="F20" s="54">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="56"/>
-    </row>
-    <row r="21" spans="1:16" s="57" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A21" s="58">
-        <v>15</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54">
-        <v>0</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="56"/>
-    </row>
-    <row r="22" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A22" s="58">
-        <v>16</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54">
-        <v>0</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="56"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="108"/>
+      <c r="N22" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
+  <mergeCells count="60">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -4310,6 +4847,26 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/設計.xlsx
+++ b/設計.xlsx
@@ -9,18 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11472" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙 " sheetId="2" r:id="rId1"/>
-    <sheet name="取引先マスタ" sheetId="3" r:id="rId2"/>
+    <sheet name="テーブル定義書＿表紙 " sheetId="2" r:id="rId1"/>
+    <sheet name="テーブル定義書＿取引先マスタ" sheetId="3" r:id="rId2"/>
+    <sheet name="機能一覧表＿表紙" sheetId="4" r:id="rId3"/>
+    <sheet name="機能一覧表" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'テーブル定義書＿表紙 '!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">機能一覧表!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧表＿表紙!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'テーブル定義書＿表紙 '!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">機能一覧表!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">機能一覧表＿表紙!$1:$1</definedName>
+    <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="144">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -719,6 +726,291 @@
   <si>
     <t>アカウント</t>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>機能一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成会社</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能分類</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>D.I.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>D.I.ブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よしかわ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.I.ブログホーム画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログや各種リンクを公開する画面</t>
+    <rPh sb="4" eb="6">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報発信</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.I.ブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索・一覧表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.I.ブログ画面にログイン可能なユーザーを追加する機能</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録済みのアカウントでログインを行う画面</t>
+    <rPh sb="7" eb="10">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みアカウントの検索と一覧表示を行う画面</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みアカウントの削除を行う機能</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みアカウントの編集を行う機能</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -729,7 +1021,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,8 +1168,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,6 +1192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,8 +1625,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,6 +1761,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1481,6 +1802,72 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="17" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,60 +1892,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,12 +1910,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,15 +1922,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,28 +1931,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="8"/>
     <cellStyle name="標準_ＤＢ一覧" xfId="7"/>
     <cellStyle name="標準_Sheet1" xfId="3"/>
     <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_業務フローサンプル" xfId="2"/>
@@ -1668,7 +2061,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +2082,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1742,7 +2135,217 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="814" y="95"/>
+            <a:ext cx="100" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>26</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>135620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C340C33-E1D1-4010-A622-D4E3B10CA8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7407965" y="159026"/>
+          <a:ext cx="1560229" cy="171726"/>
+          <a:chOff x="733" y="95"/>
+          <a:chExt cx="181" cy="17"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DEA992-3B37-4927-ADCD-DC256B90DB4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="733" y="95"/>
+            <a:ext cx="80" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>作成日</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D1FE4-A224-4304-8501-C030C6564609}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2124,7 +2727,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F9" sqref="F9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -2709,20 +3312,20 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="60"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="67"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -2741,26 +3344,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -2779,22 +3382,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -3005,26 +3608,26 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -3040,24 +3643,24 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -3073,24 +3676,24 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -3301,14 +3904,14 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
-      <c r="AA25" s="124" t="s">
+      <c r="AA25" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="124" t="s">
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="125"/>
+      <c r="AD25" s="64"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="13"/>
     </row>
@@ -3320,12 +3923,12 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="74">
+      <c r="F26" s="81">
         <v>45714</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="18" t="s">
         <v>9</v>
       </c>
@@ -3345,12 +3948,12 @@
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="125"/>
-      <c r="AC26" s="124" t="s">
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="AD26" s="125"/>
+      <c r="AD26" s="64"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="13"/>
     </row>
@@ -3381,10 +3984,10 @@
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="123"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="62"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="13"/>
     </row>
@@ -3415,10 +4018,10 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="123"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="62"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="13"/>
     </row>
@@ -3449,10 +4052,10 @@
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="123"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="62"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="13"/>
     </row>
@@ -3483,10 +4086,10 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="123"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="62"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="13"/>
     </row>
@@ -3517,10 +4120,10 @@
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="123"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="123"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="62"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="13"/>
     </row>
@@ -3551,10 +4154,10 @@
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="123"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="62"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="13"/>
     </row>
@@ -3585,10 +4188,10 @@
       <c r="X33" s="19"/>
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="122"/>
-      <c r="AD33" s="123"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="62"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="13"/>
     </row>
@@ -3619,10 +4222,10 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="123"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="62"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="13"/>
     </row>
@@ -3653,10 +4256,10 @@
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="123"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="123"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="62"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="13"/>
     </row>
@@ -3687,10 +4290,10 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="123"/>
-      <c r="AC36" s="122"/>
-      <c r="AD36" s="123"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="62"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="13"/>
     </row>
@@ -3721,10 +4324,10 @@
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="123"/>
-      <c r="AC37" s="122"/>
-      <c r="AD37" s="123"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="62"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="13"/>
     </row>
@@ -3755,10 +4358,10 @@
       <c r="X38" s="19"/>
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="123"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="123"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="62"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="13"/>
     </row>
@@ -3789,10 +4392,10 @@
       <c r="X39" s="19"/>
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="123"/>
-      <c r="AC39" s="122"/>
-      <c r="AD39" s="123"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="62"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="13"/>
     </row>
@@ -3823,10 +4426,10 @@
       <c r="X40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
-      <c r="AA40" s="122"/>
-      <c r="AB40" s="123"/>
-      <c r="AC40" s="122"/>
-      <c r="AD40" s="123"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="62"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="13"/>
     </row>
@@ -3857,10 +4460,10 @@
       <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
-      <c r="AA41" s="122"/>
-      <c r="AB41" s="123"/>
-      <c r="AC41" s="122"/>
-      <c r="AD41" s="123"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="62"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="13"/>
     </row>
@@ -3891,10 +4494,10 @@
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="123"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="123"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="62"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="13"/>
     </row>
@@ -3934,15 +4537,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:Q10"/>
+    <mergeCell ref="H17:Y19"/>
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="AA25:AB25"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:Q10"/>
-    <mergeCell ref="H17:Y19"/>
-    <mergeCell ref="F26:I26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3959,7 +4562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -3983,25 +4586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="31" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="28" t="s">
         <v>14</v>
       </c>
@@ -4011,78 +4614,78 @@
       <c r="N1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="77">
+      <c r="O1" s="106">
         <v>45714</v>
       </c>
-      <c r="P1" s="78"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="33" t="s">
         <v>61</v>
       </c>
       <c r="M2" s="57">
         <v>45597</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="97" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="99"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="102"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="35"/>
@@ -4101,11 +4704,11 @@
       <c r="C6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="104"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="117"/>
       <c r="G6" s="42" t="s">
         <v>19</v>
       </c>
@@ -4121,17 +4724,17 @@
       <c r="K6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="104"/>
+      <c r="M6" s="117"/>
       <c r="N6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="103" t="s">
+      <c r="O6" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="116"/>
+      <c r="P6" s="124"/>
     </row>
     <row r="7" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
       <c r="A7" s="55">
@@ -4143,11 +4746,11 @@
       <c r="C7" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="48" t="s">
         <v>27</v>
       </c>
@@ -4163,17 +4766,17 @@
       <c r="K7" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="105" t="s">
+      <c r="L7" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="106"/>
+      <c r="M7" s="119"/>
       <c r="N7" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="117" t="s">
+      <c r="O7" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="118"/>
+      <c r="P7" s="126"/>
     </row>
     <row r="8" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="56">
@@ -4185,11 +4788,11 @@
       <c r="C8" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="48" t="s">
         <v>27</v>
       </c>
@@ -4205,17 +4808,17 @@
       <c r="K8" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="115"/>
       <c r="N8" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="113" t="s">
+      <c r="O8" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="121"/>
+      <c r="P8" s="85"/>
     </row>
     <row r="9" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="56">
@@ -4227,11 +4830,11 @@
       <c r="C9" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="48" t="s">
         <v>27</v>
       </c>
@@ -4247,17 +4850,17 @@
       <c r="K9" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="115"/>
       <c r="N9" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="113" t="s">
+      <c r="O9" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="121"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="51">
@@ -4269,11 +4872,11 @@
       <c r="C10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="48" t="s">
         <v>27</v>
       </c>
@@ -4289,17 +4892,17 @@
       <c r="K10" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="86"/>
+      <c r="M10" s="91"/>
       <c r="N10" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="113" t="s">
+      <c r="O10" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="121"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="51">
@@ -4311,11 +4914,11 @@
       <c r="C11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="48" t="s">
         <v>27</v>
       </c>
@@ -4331,17 +4934,17 @@
       <c r="K11" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="86"/>
+      <c r="M11" s="91"/>
       <c r="N11" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="113" t="s">
+      <c r="O11" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="121"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="12" spans="1:16" s="50" customFormat="1" ht="63" customHeight="1">
       <c r="A12" s="51">
@@ -4353,11 +4956,11 @@
       <c r="C12" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="48" t="s">
         <v>27</v>
       </c>
@@ -4373,17 +4976,17 @@
       <c r="K12" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="L12" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="86"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="113" t="s">
+      <c r="O12" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="121"/>
+      <c r="P12" s="85"/>
     </row>
     <row r="13" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="51">
@@ -4395,11 +4998,11 @@
       <c r="C13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="48" t="s">
         <v>27</v>
       </c>
@@ -4415,17 +5018,17 @@
       <c r="K13" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="85" t="s">
+      <c r="L13" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="86"/>
+      <c r="M13" s="91"/>
       <c r="N13" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="113" t="s">
+      <c r="O13" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="121"/>
+      <c r="P13" s="85"/>
     </row>
     <row r="14" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="51">
@@ -4437,11 +5040,11 @@
       <c r="C14" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="48" t="s">
         <v>27</v>
       </c>
@@ -4457,17 +5060,17 @@
       <c r="K14" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="O14" s="113" t="s">
+      <c r="O14" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="121"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="1:16" s="50" customFormat="1" ht="63" customHeight="1">
       <c r="A15" s="51">
@@ -4479,11 +5082,11 @@
       <c r="C15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="48" t="s">
         <v>27</v>
       </c>
@@ -4499,17 +5102,17 @@
       <c r="K15" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="107" t="s">
+      <c r="L15" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="108"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="113" t="s">
+      <c r="O15" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="121"/>
+      <c r="P15" s="85"/>
     </row>
     <row r="16" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="51">
@@ -4521,11 +5124,11 @@
       <c r="C16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="48" t="s">
         <v>27</v>
       </c>
@@ -4541,17 +5144,17 @@
       <c r="K16" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="107" t="s">
+      <c r="L16" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="108"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="113" t="s">
+      <c r="O16" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="121"/>
+      <c r="P16" s="85"/>
     </row>
     <row r="17" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="51">
@@ -4563,11 +5166,11 @@
       <c r="C17" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="48" t="s">
         <v>27</v>
       </c>
@@ -4583,17 +5186,17 @@
       <c r="K17" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="107" t="s">
+      <c r="L17" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="108"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="113" t="s">
+      <c r="O17" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P17" s="121"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="51">
@@ -4605,11 +5208,11 @@
       <c r="C18" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="48" t="s">
         <v>27</v>
       </c>
@@ -4625,17 +5228,17 @@
       <c r="K18" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="108"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="113" t="s">
+      <c r="O18" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="121"/>
+      <c r="P18" s="85"/>
     </row>
     <row r="19" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="51">
@@ -4647,11 +5250,11 @@
       <c r="C19" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="48" t="s">
         <v>27</v>
       </c>
@@ -4667,17 +5270,17 @@
       <c r="K19" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="108"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="O19" s="113" t="s">
+      <c r="O19" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P19" s="121"/>
+      <c r="P19" s="85"/>
     </row>
     <row r="20" spans="1:16" s="50" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="51">
@@ -4689,11 +5292,11 @@
       <c r="C20" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="48" t="s">
         <v>80</v>
       </c>
@@ -4706,20 +5309,20 @@
       <c r="J20" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="107" t="s">
+      <c r="L20" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="108"/>
+      <c r="M20" s="89"/>
       <c r="N20" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="113" t="s">
+      <c r="O20" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="121"/>
+      <c r="P20" s="85"/>
     </row>
     <row r="21" spans="1:16" s="50" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A21" s="51">
@@ -4731,11 +5334,11 @@
       <c r="C21" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="48" t="s">
         <v>80</v>
       </c>
@@ -4751,17 +5354,17 @@
       <c r="K21" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="N21" s="120" t="s">
+      <c r="M21" s="89"/>
+      <c r="N21" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="113" t="s">
+      <c r="O21" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="121"/>
+      <c r="P21" s="85"/>
     </row>
     <row r="22" spans="1:16" ht="63" customHeight="1">
       <c r="A22" s="51">
@@ -4773,11 +5376,11 @@
       <c r="C22" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="48" t="s">
         <v>80</v>
       </c>
@@ -4793,48 +5396,40 @@
       <c r="K22" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L22" s="107" t="s">
+      <c r="L22" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="108"/>
-      <c r="N22" s="120" t="s">
+      <c r="M22" s="89"/>
+      <c r="N22" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="113" t="s">
+      <c r="O22" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="121"/>
+      <c r="P22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
@@ -4847,30 +5442,3593 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FT43"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="26" customWidth="1"/>
+    <col min="7" max="32" width="4.109375" style="12" customWidth="1"/>
+    <col min="33" max="36" width="4" style="12" customWidth="1"/>
+    <col min="37" max="256" width="9" style="12"/>
+    <col min="257" max="288" width="4.109375" style="12" customWidth="1"/>
+    <col min="289" max="292" width="4" style="12" customWidth="1"/>
+    <col min="293" max="512" width="9" style="12"/>
+    <col min="513" max="544" width="4.109375" style="12" customWidth="1"/>
+    <col min="545" max="548" width="4" style="12" customWidth="1"/>
+    <col min="549" max="768" width="9" style="12"/>
+    <col min="769" max="800" width="4.109375" style="12" customWidth="1"/>
+    <col min="801" max="804" width="4" style="12" customWidth="1"/>
+    <col min="805" max="1024" width="9" style="12"/>
+    <col min="1025" max="1056" width="4.109375" style="12" customWidth="1"/>
+    <col min="1057" max="1060" width="4" style="12" customWidth="1"/>
+    <col min="1061" max="1280" width="9" style="12"/>
+    <col min="1281" max="1312" width="4.109375" style="12" customWidth="1"/>
+    <col min="1313" max="1316" width="4" style="12" customWidth="1"/>
+    <col min="1317" max="1536" width="9" style="12"/>
+    <col min="1537" max="1568" width="4.109375" style="12" customWidth="1"/>
+    <col min="1569" max="1572" width="4" style="12" customWidth="1"/>
+    <col min="1573" max="1792" width="9" style="12"/>
+    <col min="1793" max="1824" width="4.109375" style="12" customWidth="1"/>
+    <col min="1825" max="1828" width="4" style="12" customWidth="1"/>
+    <col min="1829" max="2048" width="9" style="12"/>
+    <col min="2049" max="2080" width="4.109375" style="12" customWidth="1"/>
+    <col min="2081" max="2084" width="4" style="12" customWidth="1"/>
+    <col min="2085" max="2304" width="9" style="12"/>
+    <col min="2305" max="2336" width="4.109375" style="12" customWidth="1"/>
+    <col min="2337" max="2340" width="4" style="12" customWidth="1"/>
+    <col min="2341" max="2560" width="9" style="12"/>
+    <col min="2561" max="2592" width="4.109375" style="12" customWidth="1"/>
+    <col min="2593" max="2596" width="4" style="12" customWidth="1"/>
+    <col min="2597" max="2816" width="9" style="12"/>
+    <col min="2817" max="2848" width="4.109375" style="12" customWidth="1"/>
+    <col min="2849" max="2852" width="4" style="12" customWidth="1"/>
+    <col min="2853" max="3072" width="9" style="12"/>
+    <col min="3073" max="3104" width="4.109375" style="12" customWidth="1"/>
+    <col min="3105" max="3108" width="4" style="12" customWidth="1"/>
+    <col min="3109" max="3328" width="9" style="12"/>
+    <col min="3329" max="3360" width="4.109375" style="12" customWidth="1"/>
+    <col min="3361" max="3364" width="4" style="12" customWidth="1"/>
+    <col min="3365" max="3584" width="9" style="12"/>
+    <col min="3585" max="3616" width="4.109375" style="12" customWidth="1"/>
+    <col min="3617" max="3620" width="4" style="12" customWidth="1"/>
+    <col min="3621" max="3840" width="9" style="12"/>
+    <col min="3841" max="3872" width="4.109375" style="12" customWidth="1"/>
+    <col min="3873" max="3876" width="4" style="12" customWidth="1"/>
+    <col min="3877" max="4096" width="9" style="12"/>
+    <col min="4097" max="4128" width="4.109375" style="12" customWidth="1"/>
+    <col min="4129" max="4132" width="4" style="12" customWidth="1"/>
+    <col min="4133" max="4352" width="9" style="12"/>
+    <col min="4353" max="4384" width="4.109375" style="12" customWidth="1"/>
+    <col min="4385" max="4388" width="4" style="12" customWidth="1"/>
+    <col min="4389" max="4608" width="9" style="12"/>
+    <col min="4609" max="4640" width="4.109375" style="12" customWidth="1"/>
+    <col min="4641" max="4644" width="4" style="12" customWidth="1"/>
+    <col min="4645" max="4864" width="9" style="12"/>
+    <col min="4865" max="4896" width="4.109375" style="12" customWidth="1"/>
+    <col min="4897" max="4900" width="4" style="12" customWidth="1"/>
+    <col min="4901" max="5120" width="9" style="12"/>
+    <col min="5121" max="5152" width="4.109375" style="12" customWidth="1"/>
+    <col min="5153" max="5156" width="4" style="12" customWidth="1"/>
+    <col min="5157" max="5376" width="9" style="12"/>
+    <col min="5377" max="5408" width="4.109375" style="12" customWidth="1"/>
+    <col min="5409" max="5412" width="4" style="12" customWidth="1"/>
+    <col min="5413" max="5632" width="9" style="12"/>
+    <col min="5633" max="5664" width="4.109375" style="12" customWidth="1"/>
+    <col min="5665" max="5668" width="4" style="12" customWidth="1"/>
+    <col min="5669" max="5888" width="9" style="12"/>
+    <col min="5889" max="5920" width="4.109375" style="12" customWidth="1"/>
+    <col min="5921" max="5924" width="4" style="12" customWidth="1"/>
+    <col min="5925" max="6144" width="9" style="12"/>
+    <col min="6145" max="6176" width="4.109375" style="12" customWidth="1"/>
+    <col min="6177" max="6180" width="4" style="12" customWidth="1"/>
+    <col min="6181" max="6400" width="9" style="12"/>
+    <col min="6401" max="6432" width="4.109375" style="12" customWidth="1"/>
+    <col min="6433" max="6436" width="4" style="12" customWidth="1"/>
+    <col min="6437" max="6656" width="9" style="12"/>
+    <col min="6657" max="6688" width="4.109375" style="12" customWidth="1"/>
+    <col min="6689" max="6692" width="4" style="12" customWidth="1"/>
+    <col min="6693" max="6912" width="9" style="12"/>
+    <col min="6913" max="6944" width="4.109375" style="12" customWidth="1"/>
+    <col min="6945" max="6948" width="4" style="12" customWidth="1"/>
+    <col min="6949" max="7168" width="9" style="12"/>
+    <col min="7169" max="7200" width="4.109375" style="12" customWidth="1"/>
+    <col min="7201" max="7204" width="4" style="12" customWidth="1"/>
+    <col min="7205" max="7424" width="9" style="12"/>
+    <col min="7425" max="7456" width="4.109375" style="12" customWidth="1"/>
+    <col min="7457" max="7460" width="4" style="12" customWidth="1"/>
+    <col min="7461" max="7680" width="9" style="12"/>
+    <col min="7681" max="7712" width="4.109375" style="12" customWidth="1"/>
+    <col min="7713" max="7716" width="4" style="12" customWidth="1"/>
+    <col min="7717" max="7936" width="9" style="12"/>
+    <col min="7937" max="7968" width="4.109375" style="12" customWidth="1"/>
+    <col min="7969" max="7972" width="4" style="12" customWidth="1"/>
+    <col min="7973" max="8192" width="9" style="12"/>
+    <col min="8193" max="8224" width="4.109375" style="12" customWidth="1"/>
+    <col min="8225" max="8228" width="4" style="12" customWidth="1"/>
+    <col min="8229" max="8448" width="9" style="12"/>
+    <col min="8449" max="8480" width="4.109375" style="12" customWidth="1"/>
+    <col min="8481" max="8484" width="4" style="12" customWidth="1"/>
+    <col min="8485" max="8704" width="9" style="12"/>
+    <col min="8705" max="8736" width="4.109375" style="12" customWidth="1"/>
+    <col min="8737" max="8740" width="4" style="12" customWidth="1"/>
+    <col min="8741" max="8960" width="9" style="12"/>
+    <col min="8961" max="8992" width="4.109375" style="12" customWidth="1"/>
+    <col min="8993" max="8996" width="4" style="12" customWidth="1"/>
+    <col min="8997" max="9216" width="9" style="12"/>
+    <col min="9217" max="9248" width="4.109375" style="12" customWidth="1"/>
+    <col min="9249" max="9252" width="4" style="12" customWidth="1"/>
+    <col min="9253" max="9472" width="9" style="12"/>
+    <col min="9473" max="9504" width="4.109375" style="12" customWidth="1"/>
+    <col min="9505" max="9508" width="4" style="12" customWidth="1"/>
+    <col min="9509" max="9728" width="9" style="12"/>
+    <col min="9729" max="9760" width="4.109375" style="12" customWidth="1"/>
+    <col min="9761" max="9764" width="4" style="12" customWidth="1"/>
+    <col min="9765" max="9984" width="9" style="12"/>
+    <col min="9985" max="10016" width="4.109375" style="12" customWidth="1"/>
+    <col min="10017" max="10020" width="4" style="12" customWidth="1"/>
+    <col min="10021" max="10240" width="9" style="12"/>
+    <col min="10241" max="10272" width="4.109375" style="12" customWidth="1"/>
+    <col min="10273" max="10276" width="4" style="12" customWidth="1"/>
+    <col min="10277" max="10496" width="9" style="12"/>
+    <col min="10497" max="10528" width="4.109375" style="12" customWidth="1"/>
+    <col min="10529" max="10532" width="4" style="12" customWidth="1"/>
+    <col min="10533" max="10752" width="9" style="12"/>
+    <col min="10753" max="10784" width="4.109375" style="12" customWidth="1"/>
+    <col min="10785" max="10788" width="4" style="12" customWidth="1"/>
+    <col min="10789" max="11008" width="9" style="12"/>
+    <col min="11009" max="11040" width="4.109375" style="12" customWidth="1"/>
+    <col min="11041" max="11044" width="4" style="12" customWidth="1"/>
+    <col min="11045" max="11264" width="9" style="12"/>
+    <col min="11265" max="11296" width="4.109375" style="12" customWidth="1"/>
+    <col min="11297" max="11300" width="4" style="12" customWidth="1"/>
+    <col min="11301" max="11520" width="9" style="12"/>
+    <col min="11521" max="11552" width="4.109375" style="12" customWidth="1"/>
+    <col min="11553" max="11556" width="4" style="12" customWidth="1"/>
+    <col min="11557" max="11776" width="9" style="12"/>
+    <col min="11777" max="11808" width="4.109375" style="12" customWidth="1"/>
+    <col min="11809" max="11812" width="4" style="12" customWidth="1"/>
+    <col min="11813" max="12032" width="9" style="12"/>
+    <col min="12033" max="12064" width="4.109375" style="12" customWidth="1"/>
+    <col min="12065" max="12068" width="4" style="12" customWidth="1"/>
+    <col min="12069" max="12288" width="9" style="12"/>
+    <col min="12289" max="12320" width="4.109375" style="12" customWidth="1"/>
+    <col min="12321" max="12324" width="4" style="12" customWidth="1"/>
+    <col min="12325" max="12544" width="9" style="12"/>
+    <col min="12545" max="12576" width="4.109375" style="12" customWidth="1"/>
+    <col min="12577" max="12580" width="4" style="12" customWidth="1"/>
+    <col min="12581" max="12800" width="9" style="12"/>
+    <col min="12801" max="12832" width="4.109375" style="12" customWidth="1"/>
+    <col min="12833" max="12836" width="4" style="12" customWidth="1"/>
+    <col min="12837" max="13056" width="9" style="12"/>
+    <col min="13057" max="13088" width="4.109375" style="12" customWidth="1"/>
+    <col min="13089" max="13092" width="4" style="12" customWidth="1"/>
+    <col min="13093" max="13312" width="9" style="12"/>
+    <col min="13313" max="13344" width="4.109375" style="12" customWidth="1"/>
+    <col min="13345" max="13348" width="4" style="12" customWidth="1"/>
+    <col min="13349" max="13568" width="9" style="12"/>
+    <col min="13569" max="13600" width="4.109375" style="12" customWidth="1"/>
+    <col min="13601" max="13604" width="4" style="12" customWidth="1"/>
+    <col min="13605" max="13824" width="9" style="12"/>
+    <col min="13825" max="13856" width="4.109375" style="12" customWidth="1"/>
+    <col min="13857" max="13860" width="4" style="12" customWidth="1"/>
+    <col min="13861" max="14080" width="9" style="12"/>
+    <col min="14081" max="14112" width="4.109375" style="12" customWidth="1"/>
+    <col min="14113" max="14116" width="4" style="12" customWidth="1"/>
+    <col min="14117" max="14336" width="9" style="12"/>
+    <col min="14337" max="14368" width="4.109375" style="12" customWidth="1"/>
+    <col min="14369" max="14372" width="4" style="12" customWidth="1"/>
+    <col min="14373" max="14592" width="9" style="12"/>
+    <col min="14593" max="14624" width="4.109375" style="12" customWidth="1"/>
+    <col min="14625" max="14628" width="4" style="12" customWidth="1"/>
+    <col min="14629" max="14848" width="9" style="12"/>
+    <col min="14849" max="14880" width="4.109375" style="12" customWidth="1"/>
+    <col min="14881" max="14884" width="4" style="12" customWidth="1"/>
+    <col min="14885" max="15104" width="9" style="12"/>
+    <col min="15105" max="15136" width="4.109375" style="12" customWidth="1"/>
+    <col min="15137" max="15140" width="4" style="12" customWidth="1"/>
+    <col min="15141" max="15360" width="9" style="12"/>
+    <col min="15361" max="15392" width="4.109375" style="12" customWidth="1"/>
+    <col min="15393" max="15396" width="4" style="12" customWidth="1"/>
+    <col min="15397" max="15616" width="9" style="12"/>
+    <col min="15617" max="15648" width="4.109375" style="12" customWidth="1"/>
+    <col min="15649" max="15652" width="4" style="12" customWidth="1"/>
+    <col min="15653" max="15872" width="9" style="12"/>
+    <col min="15873" max="15904" width="4.109375" style="12" customWidth="1"/>
+    <col min="15905" max="15908" width="4" style="12" customWidth="1"/>
+    <col min="15909" max="16128" width="9" style="12"/>
+    <col min="16129" max="16160" width="4.109375" style="12" customWidth="1"/>
+    <col min="16161" max="16164" width="4" style="12" customWidth="1"/>
+    <col min="16165" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:176" s="9" customFormat="1" ht="13.05" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+    </row>
+    <row r="2" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="13"/>
+    </row>
+    <row r="3" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="13"/>
+    </row>
+    <row r="5" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="13"/>
+    </row>
+    <row r="6" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="13"/>
+    </row>
+    <row r="7" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="13"/>
+    </row>
+    <row r="9" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="13"/>
+    </row>
+    <row r="22" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="13"/>
+    </row>
+    <row r="23" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="13"/>
+    </row>
+    <row r="24" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="13"/>
+    </row>
+    <row r="26" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="81">
+        <v>45714</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="13"/>
+    </row>
+    <row r="27" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="13"/>
+    </row>
+    <row r="34" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="13"/>
+    </row>
+    <row r="35" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="13"/>
+    </row>
+    <row r="36" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="13"/>
+    </row>
+    <row r="37" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="13"/>
+    </row>
+    <row r="38" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="13"/>
+    </row>
+    <row r="39" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="13"/>
+    </row>
+    <row r="40" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="13"/>
+    </row>
+    <row r="41" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="13"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="13"/>
+    </row>
+    <row r="43" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:Q10"/>
+    <mergeCell ref="H17:Y19"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FQ42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.109375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="144" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="144" customWidth="1"/>
+    <col min="7" max="26" width="4.109375" style="128" customWidth="1"/>
+    <col min="27" max="29" width="4.109375" style="145" customWidth="1"/>
+    <col min="30" max="33" width="4" style="128" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A1" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+    </row>
+    <row r="2" spans="1:173" ht="14.25" customHeight="1">
+      <c r="A2" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="133"/>
+    </row>
+    <row r="3" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A3" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC3" s="137"/>
+    </row>
+    <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="8"/>
+      <c r="CO4" s="8"/>
+      <c r="CP4" s="8"/>
+      <c r="CQ4" s="8"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="8"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="8"/>
+      <c r="CY4" s="8"/>
+      <c r="CZ4" s="8"/>
+      <c r="DA4" s="8"/>
+      <c r="DB4" s="8"/>
+      <c r="DC4" s="8"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="8"/>
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="8"/>
+      <c r="DK4" s="8"/>
+      <c r="DL4" s="8"/>
+      <c r="DM4" s="8"/>
+      <c r="DN4" s="8"/>
+      <c r="DO4" s="8"/>
+      <c r="DP4" s="8"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="8"/>
+      <c r="DS4" s="8"/>
+      <c r="DT4" s="8"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="8"/>
+      <c r="DW4" s="8"/>
+      <c r="DX4" s="8"/>
+      <c r="DY4" s="8"/>
+      <c r="DZ4" s="8"/>
+      <c r="EA4" s="8"/>
+      <c r="EB4" s="8"/>
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="8"/>
+      <c r="EE4" s="8"/>
+      <c r="EF4" s="8"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="8"/>
+      <c r="EI4" s="8"/>
+      <c r="EJ4" s="8"/>
+      <c r="EK4" s="8"/>
+      <c r="EL4" s="8"/>
+      <c r="EM4" s="8"/>
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="8"/>
+      <c r="EQ4" s="8"/>
+      <c r="ER4" s="8"/>
+      <c r="ES4" s="8"/>
+      <c r="ET4" s="8"/>
+      <c r="EU4" s="8"/>
+      <c r="EV4" s="8"/>
+      <c r="EW4" s="8"/>
+      <c r="EX4" s="8"/>
+      <c r="EY4" s="8"/>
+      <c r="EZ4" s="8"/>
+      <c r="FA4" s="8"/>
+      <c r="FB4" s="8"/>
+      <c r="FC4" s="8"/>
+      <c r="FD4" s="8"/>
+      <c r="FE4" s="8"/>
+      <c r="FF4" s="8"/>
+      <c r="FG4" s="8"/>
+      <c r="FH4" s="8"/>
+      <c r="FI4" s="8"/>
+      <c r="FJ4" s="8"/>
+      <c r="FK4" s="8"/>
+      <c r="FL4" s="8"/>
+      <c r="FM4" s="8"/>
+      <c r="FN4" s="8"/>
+      <c r="FO4" s="8"/>
+      <c r="FP4" s="8"/>
+      <c r="FQ4" s="8"/>
+    </row>
+    <row r="5" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A5" s="148">
+        <v>1</v>
+      </c>
+      <c r="B5" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="156"/>
+      <c r="AC5" s="157"/>
+    </row>
+    <row r="6" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A6" s="148">
+        <v>2</v>
+      </c>
+      <c r="B6" s="158" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="155" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="157"/>
+    </row>
+    <row r="7" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A7" s="148">
+        <v>3</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="155" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="157"/>
+    </row>
+    <row r="8" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A8" s="148">
+        <v>4</v>
+      </c>
+      <c r="B8" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="155" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="157"/>
+    </row>
+    <row r="9" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A9" s="148">
+        <v>5</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="157"/>
+    </row>
+    <row r="10" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A10" s="148">
+        <v>6</v>
+      </c>
+      <c r="B10" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="150" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="157"/>
+    </row>
+    <row r="11" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A11" s="146"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="157"/>
+    </row>
+    <row r="12" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A12" s="146"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="157"/>
+    </row>
+    <row r="13" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A13" s="146"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="157"/>
+    </row>
+    <row r="14" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A14" s="146"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="157"/>
+    </row>
+    <row r="15" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A15" s="146"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="157"/>
+    </row>
+    <row r="16" spans="1:173" ht="12.75" customHeight="1">
+      <c r="A16" s="146"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="157"/>
+    </row>
+    <row r="17" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A17" s="146"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="157"/>
+    </row>
+    <row r="18" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A18" s="146"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="157"/>
+    </row>
+    <row r="19" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A19" s="146"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="157"/>
+    </row>
+    <row r="20" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A20" s="146"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="157"/>
+    </row>
+    <row r="21" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A21" s="146"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="157"/>
+    </row>
+    <row r="22" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A22" s="146"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="157"/>
+    </row>
+    <row r="23" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A23" s="146"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="157"/>
+    </row>
+    <row r="24" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A24" s="146"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="157"/>
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A25" s="146"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="157"/>
+    </row>
+    <row r="26" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A26" s="146"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="157"/>
+    </row>
+    <row r="27" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A27" s="146"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="157"/>
+    </row>
+    <row r="28" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A28" s="146"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="157"/>
+    </row>
+    <row r="29" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A29" s="146"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="157"/>
+    </row>
+    <row r="30" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A30" s="146"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="156"/>
+      <c r="W30" s="156"/>
+      <c r="X30" s="156"/>
+      <c r="Y30" s="156"/>
+      <c r="Z30" s="156"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="157"/>
+    </row>
+    <row r="31" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A31" s="146"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="156"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="157"/>
+    </row>
+    <row r="32" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A32" s="146"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="157"/>
+    </row>
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A33" s="146"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="156"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="157"/>
+    </row>
+    <row r="34" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A34" s="146"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="156"/>
+      <c r="R34" s="156"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="156"/>
+      <c r="W34" s="156"/>
+      <c r="X34" s="156"/>
+      <c r="Y34" s="156"/>
+      <c r="Z34" s="156"/>
+      <c r="AA34" s="156"/>
+      <c r="AB34" s="156"/>
+      <c r="AC34" s="157"/>
+    </row>
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A35" s="146"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
+      <c r="U35" s="156"/>
+      <c r="V35" s="156"/>
+      <c r="W35" s="156"/>
+      <c r="X35" s="156"/>
+      <c r="Y35" s="156"/>
+      <c r="Z35" s="156"/>
+      <c r="AA35" s="156"/>
+      <c r="AB35" s="156"/>
+      <c r="AC35" s="157"/>
+    </row>
+    <row r="36" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A36" s="146"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="156"/>
+      <c r="R36" s="156"/>
+      <c r="S36" s="156"/>
+      <c r="T36" s="156"/>
+      <c r="U36" s="156"/>
+      <c r="V36" s="156"/>
+      <c r="W36" s="156"/>
+      <c r="X36" s="156"/>
+      <c r="Y36" s="156"/>
+      <c r="Z36" s="156"/>
+      <c r="AA36" s="156"/>
+      <c r="AB36" s="156"/>
+      <c r="AC36" s="157"/>
+    </row>
+    <row r="37" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A37" s="146"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
+      <c r="U37" s="156"/>
+      <c r="V37" s="156"/>
+      <c r="W37" s="156"/>
+      <c r="X37" s="156"/>
+      <c r="Y37" s="156"/>
+      <c r="Z37" s="156"/>
+      <c r="AA37" s="156"/>
+      <c r="AB37" s="156"/>
+      <c r="AC37" s="157"/>
+    </row>
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A38" s="146"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="156"/>
+      <c r="W38" s="156"/>
+      <c r="X38" s="156"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="156"/>
+      <c r="AA38" s="156"/>
+      <c r="AB38" s="156"/>
+      <c r="AC38" s="157"/>
+    </row>
+    <row r="39" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A39" s="146"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="156"/>
+      <c r="T39" s="156"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="156"/>
+      <c r="W39" s="156"/>
+      <c r="X39" s="156"/>
+      <c r="Y39" s="156"/>
+      <c r="Z39" s="156"/>
+      <c r="AA39" s="156"/>
+      <c r="AB39" s="156"/>
+      <c r="AC39" s="157"/>
+    </row>
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A40" s="146"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="156"/>
+      <c r="S40" s="156"/>
+      <c r="T40" s="156"/>
+      <c r="U40" s="156"/>
+      <c r="V40" s="156"/>
+      <c r="W40" s="156"/>
+      <c r="X40" s="156"/>
+      <c r="Y40" s="156"/>
+      <c r="Z40" s="156"/>
+      <c r="AA40" s="156"/>
+      <c r="AB40" s="156"/>
+      <c r="AC40" s="157"/>
+    </row>
+    <row r="41" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A41" s="146"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="149"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="155"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="156"/>
+      <c r="W41" s="156"/>
+      <c r="X41" s="156"/>
+      <c r="Y41" s="156"/>
+      <c r="Z41" s="156"/>
+      <c r="AA41" s="156"/>
+      <c r="AB41" s="156"/>
+      <c r="AC41" s="157"/>
+    </row>
+    <row r="42" spans="1:29" ht="12.75" customHeight="1">
+      <c r="A42" s="146"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="141"/>
+      <c r="Q42" s="142"/>
+      <c r="R42" s="142"/>
+      <c r="S42" s="142"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="142"/>
+      <c r="Y42" s="142"/>
+      <c r="Z42" s="142"/>
+      <c r="AA42" s="142"/>
+      <c r="AB42" s="142"/>
+      <c r="AC42" s="143"/>
+    </row>
+  </sheetData>
+  <mergeCells count="157">
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="P38:AC38"/>
+    <mergeCell ref="P39:AC39"/>
+    <mergeCell ref="P40:AC40"/>
+    <mergeCell ref="P41:AC41"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="P32:AC32"/>
+    <mergeCell ref="P33:AC33"/>
+    <mergeCell ref="P34:AC34"/>
+    <mergeCell ref="P35:AC35"/>
+    <mergeCell ref="P36:AC36"/>
+    <mergeCell ref="P37:AC37"/>
+    <mergeCell ref="P26:AC26"/>
+    <mergeCell ref="P27:AC27"/>
+    <mergeCell ref="P28:AC28"/>
+    <mergeCell ref="P29:AC29"/>
+    <mergeCell ref="P30:AC30"/>
+    <mergeCell ref="P31:AC31"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="P21:AC21"/>
+    <mergeCell ref="P22:AC22"/>
+    <mergeCell ref="P23:AC23"/>
+    <mergeCell ref="P24:AC24"/>
+    <mergeCell ref="P25:AC25"/>
+    <mergeCell ref="P14:AC14"/>
+    <mergeCell ref="P15:AC15"/>
+    <mergeCell ref="P16:AC16"/>
+    <mergeCell ref="P17:AC17"/>
+    <mergeCell ref="P18:AC18"/>
+    <mergeCell ref="P19:AC19"/>
+    <mergeCell ref="P8:AC8"/>
+    <mergeCell ref="P9:AC9"/>
+    <mergeCell ref="P10:AC10"/>
+    <mergeCell ref="P11:AC11"/>
+    <mergeCell ref="P12:AC12"/>
+    <mergeCell ref="P13:AC13"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:AC5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="P6:AC6"/>
+    <mergeCell ref="P7:AC7"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="P4:AC4"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>